--- a/Documents/src/Liste des Use Case Administrateur.xlsx
+++ b/Documents/src/Liste des Use Case Administrateur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>se connecter</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>entrer les infos d'événement</t>
+  </si>
+  <si>
+    <t>Use Case ajouter annuaire</t>
+  </si>
+  <si>
+    <t>entrer les infos d'annuaire</t>
+  </si>
+  <si>
+    <t>créer l'entité d'annuaire</t>
   </si>
 </sst>
 </file>
@@ -615,16 +624,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -634,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,26 +695,35 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -713,9 +731,15 @@
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
